--- a/resources/experiment 1/metrics/MAPE/upto time/Amputación extremidades inferiores (UPTO).xlsx
+++ b/resources/experiment 1/metrics/MAPE/upto time/Amputación extremidades inferiores (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8897019667307.344</v>
+        <v>10685437837766.5</v>
       </c>
       <c r="C3" t="n">
-        <v>9084118128439.889</v>
+        <v>8679957574858.971</v>
       </c>
       <c r="D3" t="n">
-        <v>9084118128439.889</v>
+        <v>8882596980697.797</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15545621373807.14</v>
+        <v>6499717772070.138</v>
       </c>
       <c r="C4" t="n">
-        <v>15545621373807.15</v>
+        <v>6499717772070.137</v>
       </c>
       <c r="D4" t="n">
-        <v>15545621373807.15</v>
+        <v>6656337477421.225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74829846571640.5</v>
+        <v>38858527306381.99</v>
       </c>
       <c r="C5" t="n">
-        <v>77967768432968.73</v>
+        <v>56358530489483.09</v>
       </c>
       <c r="D5" t="n">
-        <v>77967768432968.73</v>
+        <v>67463987872022.22</v>
       </c>
     </row>
   </sheetData>
